--- a/097 WSL2+CUDA11.3+Pytorch 环境搭建.xlsx
+++ b/097 WSL2+CUDA11.3+Pytorch 环境搭建.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\myBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4B7D49-3EA5-4218-A8FE-499AC014DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78B9F5-BACD-404A-8B5B-DB484E489739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1884" windowWidth="20592" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="20592" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>097 WSL2+CUDA11.3+Pytorch 环境搭建</t>
   </si>
@@ -217,6 +217,9 @@
   <si>
     <t>torch.cuda.is_available() # 返回True即成功</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo mkdir -p /etc/apt/keyrings/</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,117 +752,123 @@
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>50</v>
       </c>
     </row>
